--- a/testing/PDP11Sim_TestPlan.xlsx
+++ b/testing/PDP11Sim_TestPlan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\586\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="229">
   <si>
     <t>Test plan for the ECE 586 PDP-11/20 simulator</t>
   </si>
@@ -65,9 +65,6 @@
     <t>DO_01</t>
   </si>
   <si>
-    <t>Test Focus</t>
-  </si>
-  <si>
     <t>Move</t>
   </si>
   <si>
@@ -266,7 +263,454 @@
     <t>Branch if Carry Set</t>
   </si>
   <si>
-    <t xml:space="preserve"> Branch if Overflow Set</t>
+    <t>Subroutine Call</t>
+  </si>
+  <si>
+    <t>SR_01</t>
+  </si>
+  <si>
+    <t>JSR</t>
+  </si>
+  <si>
+    <t>Jumping to subroutine</t>
+  </si>
+  <si>
+    <t>SR_02</t>
+  </si>
+  <si>
+    <t>RTS</t>
+  </si>
+  <si>
+    <t>Return from subroutine</t>
+  </si>
+  <si>
+    <t>Single Operands</t>
+  </si>
+  <si>
+    <t>SO_01</t>
+  </si>
+  <si>
+    <t>SO_02</t>
+  </si>
+  <si>
+    <t>SO_03</t>
+  </si>
+  <si>
+    <t>SO_04</t>
+  </si>
+  <si>
+    <t>SO_05</t>
+  </si>
+  <si>
+    <t>SO_06</t>
+  </si>
+  <si>
+    <t>SO_07</t>
+  </si>
+  <si>
+    <t>SO_08</t>
+  </si>
+  <si>
+    <t>SO_09</t>
+  </si>
+  <si>
+    <t>SO_10</t>
+  </si>
+  <si>
+    <t>SO_11</t>
+  </si>
+  <si>
+    <t>SO_12</t>
+  </si>
+  <si>
+    <t>SO_13</t>
+  </si>
+  <si>
+    <t>SO_14</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>INC</t>
+  </si>
+  <si>
+    <t>NEC</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>TST</t>
+  </si>
+  <si>
+    <t>ROR</t>
+  </si>
+  <si>
+    <t>ROL</t>
+  </si>
+  <si>
+    <t>ASR</t>
+  </si>
+  <si>
+    <t>ASL</t>
+  </si>
+  <si>
+    <t>JMP</t>
+  </si>
+  <si>
+    <t>SWAB</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>Compliment</t>
+  </si>
+  <si>
+    <t>Branch if Overflow Set</t>
+  </si>
+  <si>
+    <t>Test Action</t>
+  </si>
+  <si>
+    <t>Increment</t>
+  </si>
+  <si>
+    <t>Decrement</t>
+  </si>
+  <si>
+    <t>Negate</t>
+  </si>
+  <si>
+    <t>Add Carry</t>
+  </si>
+  <si>
+    <t>Subtract Carry</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Rotate Right</t>
+  </si>
+  <si>
+    <t>Rotate Left</t>
+  </si>
+  <si>
+    <t>Arithmetic Shift Right</t>
+  </si>
+  <si>
+    <t>Arithmetic Shift Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jump </t>
+  </si>
+  <si>
+    <t>Swap Bytes</t>
+  </si>
+  <si>
+    <t>Condition Code</t>
+  </si>
+  <si>
+    <t>CC_01</t>
+  </si>
+  <si>
+    <t>CLC</t>
+  </si>
+  <si>
+    <t>CLV</t>
+  </si>
+  <si>
+    <t>CLZ</t>
+  </si>
+  <si>
+    <t>CLN</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>SEC</t>
+  </si>
+  <si>
+    <t>SEV</t>
+  </si>
+  <si>
+    <t>SEZ</t>
+  </si>
+  <si>
+    <t>SEN</t>
+  </si>
+  <si>
+    <t>SCC</t>
+  </si>
+  <si>
+    <t>Clear Overflow Bit</t>
+  </si>
+  <si>
+    <t>Clear Carry Bit</t>
+  </si>
+  <si>
+    <t>Clear Zero Bit</t>
+  </si>
+  <si>
+    <t>Clear Negative Bit</t>
+  </si>
+  <si>
+    <t>Clear All</t>
+  </si>
+  <si>
+    <t>Set Carry Bit</t>
+  </si>
+  <si>
+    <t>Set Zero Bit</t>
+  </si>
+  <si>
+    <t>Set Overflow Bit</t>
+  </si>
+  <si>
+    <t>Set Negative Bit</t>
+  </si>
+  <si>
+    <t>Set All</t>
+  </si>
+  <si>
+    <t>CC_02</t>
+  </si>
+  <si>
+    <t>CC_03</t>
+  </si>
+  <si>
+    <t>CC_04</t>
+  </si>
+  <si>
+    <t>CC_05</t>
+  </si>
+  <si>
+    <t>CC_06</t>
+  </si>
+  <si>
+    <t>CC_07</t>
+  </si>
+  <si>
+    <t>CC_08</t>
+  </si>
+  <si>
+    <t>CC_09</t>
+  </si>
+  <si>
+    <t>CC_10</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>SY_01</t>
+  </si>
+  <si>
+    <t>HALT</t>
+  </si>
+  <si>
+    <t>Halt</t>
+  </si>
+  <si>
+    <t>Addressing Modes</t>
+  </si>
+  <si>
+    <t>AM_01</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R) </t>
+  </si>
+  <si>
+    <t>Register Deferred</t>
+  </si>
+  <si>
+    <t>(R)+</t>
+  </si>
+  <si>
+    <t>Auto Increment</t>
+  </si>
+  <si>
+    <t>@(R)+</t>
+  </si>
+  <si>
+    <t>Auto Increment Deferred</t>
+  </si>
+  <si>
+    <t>-(R)</t>
+  </si>
+  <si>
+    <t>Auto Decrement</t>
+  </si>
+  <si>
+    <t>@-(R)</t>
+  </si>
+  <si>
+    <t>Auto Decrement Deferred</t>
+  </si>
+  <si>
+    <t>Indexed</t>
+  </si>
+  <si>
+    <t>X(R)</t>
+  </si>
+  <si>
+    <t>@X(R)</t>
+  </si>
+  <si>
+    <t>Indexed Deferred</t>
+  </si>
+  <si>
+    <t>#n</t>
+  </si>
+  <si>
+    <t>Immediate</t>
+  </si>
+  <si>
+    <t>@#A</t>
+  </si>
+  <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>@A</t>
+  </si>
+  <si>
+    <t>Relative Deferred</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>AM_02</t>
+  </si>
+  <si>
+    <t>AM_03</t>
+  </si>
+  <si>
+    <t>AM_04</t>
+  </si>
+  <si>
+    <t>AM_05</t>
+  </si>
+  <si>
+    <t>AM_06</t>
+  </si>
+  <si>
+    <t>AM_07</t>
+  </si>
+  <si>
+    <t>AM_08</t>
+  </si>
+  <si>
+    <t>AM_09</t>
+  </si>
+  <si>
+    <t>AM_10</t>
+  </si>
+  <si>
+    <t>AM_11</t>
+  </si>
+  <si>
+    <t>AM_12</t>
+  </si>
+  <si>
+    <t>OT_01</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Double Operand, Z flag</t>
+  </si>
+  <si>
+    <t>OT_02</t>
+  </si>
+  <si>
+    <t>Double Operand, N flag</t>
+  </si>
+  <si>
+    <t>Double Operand, C flag</t>
+  </si>
+  <si>
+    <t>Double Operand, V flag</t>
+  </si>
+  <si>
+    <t>OT_03</t>
+  </si>
+  <si>
+    <t>OT_04</t>
+  </si>
+  <si>
+    <t>OT_05</t>
+  </si>
+  <si>
+    <t>OT_06</t>
+  </si>
+  <si>
+    <t>OT_07</t>
+  </si>
+  <si>
+    <t>OT_08</t>
+  </si>
+  <si>
+    <t>Single Operand, Z flag</t>
+  </si>
+  <si>
+    <t>Single Operand, N flag</t>
+  </si>
+  <si>
+    <t>Single Operand, C flag</t>
+  </si>
+  <si>
+    <t>Single Operand, V flag</t>
+  </si>
+  <si>
+    <t>Ensures all double operand instructions properly set and unset the Z flag</t>
+  </si>
+  <si>
+    <t>Ensures all double operand instructions properly set and unset the N flag</t>
+  </si>
+  <si>
+    <t>Ensures all double operand instructions properly set and unset the C flag</t>
+  </si>
+  <si>
+    <t>Ensures all double operand instructions properly set and unset the V flag</t>
+  </si>
+  <si>
+    <t>Ensures all single operand instructions properly set and unset the Z flag</t>
+  </si>
+  <si>
+    <t>Ensures all single operand instructions properly set and unset the N flag</t>
+  </si>
+  <si>
+    <t>Ensures all single operand instructions properly set and unset the C flag</t>
+  </si>
+  <si>
+    <t>Ensures all single operand instructions properly set and unset the V flag</t>
   </si>
 </sst>
 </file>
@@ -320,19 +764,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -367,13 +805,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -382,7 +832,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -391,7 +844,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -411,9 +864,6 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -428,18 +878,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:F63" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7">
-  <autoFilter ref="A7:F63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:F93" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A7:F93"/>
   <sortState ref="A8:F63">
     <sortCondition ref="A7:A63"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="Test Group" dataDxfId="4"/>
-    <tableColumn id="2" name="Case ID" dataDxfId="5"/>
-    <tableColumn id="8" name="Mnemonic" dataDxfId="0"/>
-    <tableColumn id="3" name="Test Focus" dataDxfId="3"/>
+    <tableColumn id="1" name="Test Group" dataDxfId="5"/>
+    <tableColumn id="2" name="Case ID" dataDxfId="4"/>
+    <tableColumn id="8" name="Mnemonic" dataDxfId="3"/>
+    <tableColumn id="3" name="Test Action" dataDxfId="2"/>
     <tableColumn id="4" name="Result" dataDxfId="1"/>
-    <tableColumn id="5" name="Notes" dataDxfId="2"/>
+    <tableColumn id="5" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -708,591 +1158,1136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="54.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="81.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="9"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="7"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="9"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="7"/>
+      <c r="B3" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
-        <v>41670</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="8"/>
+      <c r="B4" s="16">
+        <v>41673</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="7" spans="1:6" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="F5" s="13"/>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="5" t="s">
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="5" t="s">
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="B16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="D26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="5"/>
+      <c r="C32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="5"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="C34" s="5"/>
+      <c r="A34" s="10"/>
+      <c r="C34" s="3"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="5"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="5"/>
+      <c r="A35" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="5"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="5"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="5"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="5"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="5"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="5"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="5"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="5"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="5"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="5"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="5"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="5"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="5"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="C49" s="5"/>
+      <c r="A49" s="7"/>
+      <c r="C49" s="3"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="5"/>
+      <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="5"/>
+      <c r="A50" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="5"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="5"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="5"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="5"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="5"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="5"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="5"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="5"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="5"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-      <c r="C60" s="5"/>
+      <c r="A60" s="7"/>
+      <c r="C60" s="3"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="5"/>
+      <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="5"/>
+      <c r="A61" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
-      <c r="C62" s="5"/>
+      <c r="A62" s="7"/>
+      <c r="C62" s="3"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="5"/>
+      <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="5"/>
+      <c r="A63" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
+      <c r="B65" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+      <c r="B66" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+      <c r="B67" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+      <c r="B69" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+      <c r="B70" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
+      <c r="B71" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
+      <c r="B72" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
+      <c r="B73" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="7"/>
+      <c r="B74" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="7"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="7"/>
+      <c r="B77" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="7"/>
+      <c r="B78" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="7"/>
+      <c r="B79" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="7"/>
+      <c r="B80" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="7"/>
+      <c r="B81" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="7"/>
+      <c r="B82" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="F82" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="7"/>
+      <c r="B83" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="F83" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="7"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="7"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="7"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="7"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="7"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="7"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="7"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="7"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="7"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="7"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/testing/PDP11Sim_TestPlan.xlsx
+++ b/testing/PDP11Sim_TestPlan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="6300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="234">
   <si>
     <t>Test plan for the ECE 586 PDP-11/20 simulator</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Double Operands</t>
-  </si>
-  <si>
     <t>DO_01</t>
   </si>
   <si>
@@ -284,9 +281,6 @@
     <t>Return from subroutine</t>
   </si>
   <si>
-    <t>Single Operands</t>
-  </si>
-  <si>
     <t>SO_01</t>
   </si>
   <si>
@@ -711,6 +705,27 @@
   </si>
   <si>
     <t>Ensures all single operand instructions properly set and unset the V flag</t>
+  </si>
+  <si>
+    <t>OT_09</t>
+  </si>
+  <si>
+    <t>Trace File</t>
+  </si>
+  <si>
+    <t>Performs memory access and checks that the trace file is correct</t>
+  </si>
+  <si>
+    <t>Implemented?</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Single Operand</t>
+  </si>
+  <si>
+    <t>Double Operand</t>
   </si>
 </sst>
 </file>
@@ -764,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -808,20 +823,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -832,15 +877,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -878,18 +914,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:F93" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A7:F93"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:G93" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A7:G93"/>
   <sortState ref="A8:F63">
     <sortCondition ref="A7:A63"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Test Group" dataDxfId="5"/>
-    <tableColumn id="2" name="Case ID" dataDxfId="4"/>
-    <tableColumn id="8" name="Mnemonic" dataDxfId="3"/>
-    <tableColumn id="3" name="Test Action" dataDxfId="2"/>
-    <tableColumn id="4" name="Result" dataDxfId="1"/>
-    <tableColumn id="5" name="Notes" dataDxfId="0"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Test Group" dataDxfId="2"/>
+    <tableColumn id="6" name="Implemented?" dataDxfId="0"/>
+    <tableColumn id="2" name="Case ID" dataDxfId="1"/>
+    <tableColumn id="8" name="Mnemonic" dataDxfId="6"/>
+    <tableColumn id="3" name="Test Action" dataDxfId="5"/>
+    <tableColumn id="4" name="Result" dataDxfId="4"/>
+    <tableColumn id="5" name="Notes" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1158,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,1125 +1206,1273 @@
     <col min="1" max="1" width="20.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="81.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="100.5703125" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="7"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="7"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="11"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="18">
         <v>41673</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="8"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="7"/>
       <c r="E5" s="1"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="3" t="s">
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D40" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="3" t="s">
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="3" t="s">
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="3" t="s">
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="3" t="s">
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="3" t="s">
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="3" t="s">
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="3" t="s">
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="B50" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+      <c r="D50" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="E50" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="E51" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="E52" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="3" t="s">
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="3" t="s">
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="3" t="s">
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E56" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="3" t="s">
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E58" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="3" t="s">
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="3"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="3" t="s">
+      <c r="B61" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="D61" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="E61" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="B63" s="7"/>
+      <c r="C63" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
+      <c r="D63" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="E63" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D64" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-      <c r="B64" s="3" t="s">
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C64" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="3" t="s">
+      <c r="D66" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C65" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="3" t="s">
+      <c r="D67" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C66" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="3" t="s">
+      <c r="D68" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C67" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="3" t="s">
+      <c r="D69" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C68" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="3" t="s">
+      <c r="D70" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C69" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
-      <c r="B70" s="3" t="s">
+      <c r="D71" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C70" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E70" s="3"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
-      <c r="B71" s="3" t="s">
+      <c r="D72" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C71" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E71" s="3"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
-      <c r="B72" s="3" t="s">
+      <c r="D73" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C72" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E72" s="3"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
-      <c r="B73" s="3" t="s">
+      <c r="D74" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="15"/>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c r="C76" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C73" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E73" s="3"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
-      <c r="B74" s="3" t="s">
+      <c r="D76" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C74" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E74" s="3"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B76" s="3" t="s">
+      <c r="E76" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="F76" s="3"/>
+      <c r="G76" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D77" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="2" t="s">
+      <c r="F77" s="3"/>
+      <c r="G77" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F78" s="3"/>
+      <c r="G78" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
-      <c r="B77" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="D77" s="2" t="s">
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="2" t="s">
+      <c r="F79" s="3"/>
+      <c r="G79" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="7"/>
-      <c r="B78" s="3" t="s">
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C78" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="2" t="s">
+      <c r="D80" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F80" s="3"/>
+      <c r="G80" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="7"/>
-      <c r="B79" s="3" t="s">
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C79" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="2" t="s">
+      <c r="D81" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F81" s="3"/>
+      <c r="G81" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="7"/>
-      <c r="B80" s="3" t="s">
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C80" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="D82" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="2" t="s">
+      <c r="F82" s="3"/>
+      <c r="G82" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
-      <c r="B81" s="3" t="s">
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C81" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="D83" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="2" t="s">
+      <c r="F83" s="3"/>
+      <c r="G83" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="7"/>
-      <c r="B82" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="2" t="s">
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="3" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
-      <c r="B83" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="2" t="s">
+      <c r="D84" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="3"/>
+      <c r="G84" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
       <c r="C85" s="3"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="3"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
       <c r="C87" s="3"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
       <c r="C88" s="3"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
       <c r="C89" s="3"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
       <c r="C90" s="3"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
       <c r="C91" s="3"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
       <c r="C92" s="3"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
       <c r="C93" s="3"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/testing/PDP11Sim_TestPlan.xlsx
+++ b/testing/PDP11Sim_TestPlan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="234">
   <si>
     <t>Test plan for the ECE 586 PDP-11/20 simulator</t>
   </si>
@@ -841,6 +841,21 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -859,24 +874,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -920,13 +920,13 @@
     <sortCondition ref="A7:A63"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Test Group" dataDxfId="2"/>
-    <tableColumn id="6" name="Implemented?" dataDxfId="0"/>
-    <tableColumn id="2" name="Case ID" dataDxfId="1"/>
-    <tableColumn id="8" name="Mnemonic" dataDxfId="6"/>
-    <tableColumn id="3" name="Test Action" dataDxfId="5"/>
-    <tableColumn id="4" name="Result" dataDxfId="4"/>
-    <tableColumn id="5" name="Notes" dataDxfId="3"/>
+    <tableColumn id="1" name="Test Group" dataDxfId="6"/>
+    <tableColumn id="6" name="Implemented?" dataDxfId="5"/>
+    <tableColumn id="2" name="Case ID" dataDxfId="4"/>
+    <tableColumn id="8" name="Mnemonic" dataDxfId="3"/>
+    <tableColumn id="3" name="Test Action" dataDxfId="2"/>
+    <tableColumn id="4" name="Result" dataDxfId="1"/>
+    <tableColumn id="5" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1197,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,7 +1414,9 @@
       <c r="A16" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>231</v>
+      </c>
       <c r="C16" s="3" t="s">
         <v>34</v>
       </c>
@@ -1428,7 +1430,9 @@
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
-      <c r="B17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>231</v>
+      </c>
       <c r="C17" s="3" t="s">
         <v>48</v>
       </c>
@@ -1442,7 +1446,9 @@
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
-      <c r="B18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>231</v>
+      </c>
       <c r="C18" s="3" t="s">
         <v>49</v>
       </c>
@@ -1456,7 +1462,9 @@
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
-      <c r="B19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>231</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>50</v>
       </c>
@@ -1470,7 +1478,9 @@
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
-      <c r="B20" s="7"/>
+      <c r="B20" s="7" t="s">
+        <v>231</v>
+      </c>
       <c r="C20" s="3" t="s">
         <v>51</v>
       </c>
@@ -1484,7 +1494,9 @@
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
-      <c r="B21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>231</v>
+      </c>
       <c r="C21" s="3" t="s">
         <v>52</v>
       </c>
@@ -1498,7 +1510,9 @@
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
-      <c r="B22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>231</v>
+      </c>
       <c r="C22" s="3" t="s">
         <v>53</v>
       </c>
@@ -1512,7 +1526,9 @@
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
-      <c r="B23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>231</v>
+      </c>
       <c r="C23" s="3" t="s">
         <v>54</v>
       </c>
@@ -1526,7 +1542,9 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
-      <c r="B24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>231</v>
+      </c>
       <c r="C24" s="3" t="s">
         <v>55</v>
       </c>
@@ -1540,7 +1558,9 @@
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
-      <c r="B25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>231</v>
+      </c>
       <c r="C25" s="3" t="s">
         <v>56</v>
       </c>
@@ -1554,7 +1574,9 @@
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
-      <c r="B26" s="7"/>
+      <c r="B26" s="7" t="s">
+        <v>231</v>
+      </c>
       <c r="C26" s="3" t="s">
         <v>57</v>
       </c>
@@ -1568,7 +1590,9 @@
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
-      <c r="B27" s="7"/>
+      <c r="B27" s="7" t="s">
+        <v>231</v>
+      </c>
       <c r="C27" s="3" t="s">
         <v>58</v>
       </c>
@@ -1582,7 +1606,9 @@
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
-      <c r="B28" s="7"/>
+      <c r="B28" s="7" t="s">
+        <v>231</v>
+      </c>
       <c r="C28" s="3" t="s">
         <v>59</v>
       </c>
@@ -1596,7 +1622,9 @@
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
-      <c r="B29" s="7"/>
+      <c r="B29" s="7" t="s">
+        <v>231</v>
+      </c>
       <c r="C29" s="3" t="s">
         <v>60</v>
       </c>
@@ -1610,7 +1638,9 @@
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
-      <c r="B30" s="7"/>
+      <c r="B30" s="7" t="s">
+        <v>231</v>
+      </c>
       <c r="C30" s="3" t="s">
         <v>61</v>
       </c>

--- a/testing/PDP11Sim_TestPlan.xlsx
+++ b/testing/PDP11Sim_TestPlan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="215">
   <si>
     <t>Test plan for the ECE 586 PDP-11/20 simulator</t>
   </si>
@@ -266,21 +266,9 @@
     <t>SR_01</t>
   </si>
   <si>
-    <t>JSR</t>
-  </si>
-  <si>
-    <t>Jumping to subroutine</t>
-  </si>
-  <si>
     <t>SR_02</t>
   </si>
   <si>
-    <t>RTS</t>
-  </si>
-  <si>
-    <t>Return from subroutine</t>
-  </si>
-  <si>
     <t>SO_01</t>
   </si>
   <si>
@@ -506,12 +494,6 @@
     <t>CC_10</t>
   </si>
   <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>SY_01</t>
-  </si>
-  <si>
     <t>HALT</t>
   </si>
   <si>
@@ -638,78 +620,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Double Operand, Z flag</t>
-  </si>
-  <si>
-    <t>OT_02</t>
-  </si>
-  <si>
-    <t>Double Operand, N flag</t>
-  </si>
-  <si>
-    <t>Double Operand, C flag</t>
-  </si>
-  <si>
-    <t>Double Operand, V flag</t>
-  </si>
-  <si>
-    <t>OT_03</t>
-  </si>
-  <si>
-    <t>OT_04</t>
-  </si>
-  <si>
-    <t>OT_05</t>
-  </si>
-  <si>
-    <t>OT_06</t>
-  </si>
-  <si>
-    <t>OT_07</t>
-  </si>
-  <si>
-    <t>OT_08</t>
-  </si>
-  <si>
-    <t>Single Operand, Z flag</t>
-  </si>
-  <si>
-    <t>Single Operand, N flag</t>
-  </si>
-  <si>
-    <t>Single Operand, C flag</t>
-  </si>
-  <si>
-    <t>Single Operand, V flag</t>
-  </si>
-  <si>
-    <t>Ensures all double operand instructions properly set and unset the Z flag</t>
-  </si>
-  <si>
-    <t>Ensures all double operand instructions properly set and unset the N flag</t>
-  </si>
-  <si>
-    <t>Ensures all double operand instructions properly set and unset the C flag</t>
-  </si>
-  <si>
-    <t>Ensures all double operand instructions properly set and unset the V flag</t>
-  </si>
-  <si>
-    <t>Ensures all single operand instructions properly set and unset the Z flag</t>
-  </si>
-  <si>
-    <t>Ensures all single operand instructions properly set and unset the N flag</t>
-  </si>
-  <si>
-    <t>Ensures all single operand instructions properly set and unset the C flag</t>
-  </si>
-  <si>
-    <t>Ensures all single operand instructions properly set and unset the V flag</t>
-  </si>
-  <si>
-    <t>OT_09</t>
-  </si>
-  <si>
     <t>Trace File</t>
   </si>
   <si>
@@ -726,6 +636,39 @@
   </si>
   <si>
     <t>Double Operand</t>
+  </si>
+  <si>
+    <t>SR_03</t>
+  </si>
+  <si>
+    <t>Jump to and return from subroutine</t>
+  </si>
+  <si>
+    <t>JSR/RTS</t>
+  </si>
+  <si>
+    <t>Recursive calls, 3 deep</t>
+  </si>
+  <si>
+    <t>Nested calls, 3 deep</t>
+  </si>
+  <si>
+    <t>Single call and return</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>BA_01</t>
+  </si>
+  <si>
+    <t>BA_02</t>
+  </si>
+  <si>
+    <t>Move Immediate</t>
+  </si>
+  <si>
+    <t>Test cases are executed in the listed order by the test script. A test failure may cause failures in subsequent tests, so when running the whole test suite, always address the first failure.</t>
   </si>
 </sst>
 </file>
@@ -735,7 +678,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,6 +699,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -779,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -829,11 +787,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -847,10 +817,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -914,19 +884,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:G93" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A7:G93"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A9:G92" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A9:G92"/>
   <sortState ref="A8:F63">
     <sortCondition ref="A7:A63"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Test Group" dataDxfId="6"/>
     <tableColumn id="6" name="Implemented?" dataDxfId="5"/>
-    <tableColumn id="2" name="Case ID" dataDxfId="4"/>
-    <tableColumn id="8" name="Mnemonic" dataDxfId="3"/>
-    <tableColumn id="3" name="Test Action" dataDxfId="2"/>
-    <tableColumn id="4" name="Result" dataDxfId="1"/>
-    <tableColumn id="5" name="Notes" dataDxfId="0"/>
+    <tableColumn id="2" name="Case ID" dataDxfId="2"/>
+    <tableColumn id="8" name="Mnemonic" dataDxfId="1"/>
+    <tableColumn id="3" name="Test Action" dataDxfId="0"/>
+    <tableColumn id="4" name="Result" dataDxfId="4"/>
+    <tableColumn id="5" name="Notes" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1195,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,7 +1177,7 @@
     <col min="2" max="2" width="11.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="100.5703125" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
@@ -1217,10 +1187,10 @@
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="16"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="7"/>
       <c r="E1" s="1"/>
     </row>
@@ -1228,10 +1198,10 @@
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="7"/>
       <c r="E2" s="1"/>
     </row>
@@ -1239,10 +1209,10 @@
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="11"/>
       <c r="E3" s="5"/>
     </row>
@@ -1250,971 +1220,996 @@
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="19">
         <v>41673</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="8"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="7"/>
       <c r="E5" s="1"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="B9" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3" t="s">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+        <v>213</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="B14" s="7" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="3"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B25" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="4"/>
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="7" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="7" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="7" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="7" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="7" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="22"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="F39" s="4"/>
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="3"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="22"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
+      <c r="B46" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
+      <c r="B47" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="3" t="s">
+      <c r="D49" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E50" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="3"/>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="7" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="7" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="7" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="7" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="7" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="3"/>
+      <c r="B60" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
-        <v>160</v>
-      </c>
+      <c r="A61" s="7"/>
       <c r="B61" s="7" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="3"/>
+      <c r="B62" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>167</v>
-      </c>
+      <c r="A63" s="7"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="3"/>
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
+      <c r="A64" s="10"/>
       <c r="B64" s="7"/>
-      <c r="C64" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>169</v>
-      </c>
+      <c r="C64" s="3"/>
       <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
+      <c r="A65" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>201</v>
+      </c>
       <c r="C65" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>170</v>
+        <v>79</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="F65" s="3"/>
+      <c r="G65" s="2" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
+      <c r="B66" s="20" t="s">
+        <v>201</v>
+      </c>
       <c r="C66" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>172</v>
+        <v>80</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="F66" s="3"/>
+      <c r="G66" s="2" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
+      <c r="B67" s="20" t="s">
+        <v>201</v>
+      </c>
       <c r="C67" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>174</v>
+        <v>204</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="F67" s="3"/>
+      <c r="G67" s="2" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>177</v>
-      </c>
+      <c r="C68" s="3"/>
       <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
+      <c r="A69" s="10" t="s">
+        <v>158</v>
+      </c>
       <c r="B69" s="7"/>
       <c r="C69" s="3" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="F69" s="3"/>
     </row>
@@ -2222,13 +2217,13 @@
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="3" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="F70" s="3"/>
     </row>
@@ -2236,13 +2231,13 @@
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="3" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="F71" s="3"/>
     </row>
@@ -2250,13 +2245,13 @@
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="3" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="F72" s="3"/>
     </row>
@@ -2264,13 +2259,13 @@
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="3" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="F73" s="3"/>
     </row>
@@ -2278,177 +2273,137 @@
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="F74" s="3"/>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="15"/>
+      <c r="C75" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="F75" s="3"/>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
-        <v>190</v>
-      </c>
+      <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="F76" s="3"/>
-      <c r="G76" s="2" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="3" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="F77" s="3"/>
-      <c r="G77" s="2" t="s">
-        <v>220</v>
-      </c>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="3" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="F78" s="3"/>
-      <c r="G78" s="2" t="s">
-        <v>221</v>
-      </c>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="F79" s="3"/>
-      <c r="G79" s="2" t="s">
-        <v>222</v>
-      </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="3" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="F80" s="3"/>
-      <c r="G80" s="2" t="s">
-        <v>223</v>
-      </c>
     </row>
     <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
-      <c r="C81" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>216</v>
-      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="15"/>
       <c r="F81" s="3"/>
-      <c r="G81" s="2" t="s">
-        <v>224</v>
-      </c>
     </row>
     <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="7"/>
+      <c r="A82" s="14" t="s">
+        <v>184</v>
+      </c>
       <c r="B82" s="7"/>
       <c r="C82" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>203</v>
+        <v>196</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="2" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
-      <c r="C83" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>218</v>
-      </c>
+      <c r="C83" s="3"/>
       <c r="F83" s="3"/>
-      <c r="G83" s="2" t="s">
-        <v>226</v>
-      </c>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
-      <c r="C84" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>228</v>
-      </c>
+      <c r="C84" s="3"/>
       <c r="F84" s="3"/>
-      <c r="G84" s="2" t="s">
-        <v>229</v>
-      </c>
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
@@ -2498,14 +2453,12 @@
       <c r="C92" s="3"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="3"/>
-      <c r="F93" s="3"/>
-    </row>
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A7:G7"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>

--- a/testing/PDP11Sim_TestPlan.xlsx
+++ b/testing/PDP11Sim_TestPlan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="215">
   <si>
     <t>Test plan for the ECE 586 PDP-11/20 simulator</t>
   </si>
@@ -623,9 +623,6 @@
     <t>Trace File</t>
   </si>
   <si>
-    <t>Performs memory access and checks that the trace file is correct</t>
-  </si>
-  <si>
     <t>Implemented?</t>
   </si>
   <si>
@@ -669,6 +666,9 @@
   </si>
   <si>
     <t>Test cases are executed in the listed order by the test script. A test failure may cause failures in subsequent tests, so when running the whole test suite, always address the first failure.</t>
+  </si>
+  <si>
+    <t>Performs memory accesses and checks that the trace file is correct</t>
   </si>
 </sst>
 </file>
@@ -884,8 +884,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A9:G92" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A9:G92"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A9:G91" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A9:G91"/>
   <sortState ref="A8:F63">
     <sortCondition ref="A7:A63"/>
   </sortState>
@@ -1167,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -1261,7 +1261,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>8</v>
@@ -1290,13 +1290,13 @@
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>156</v>
@@ -1310,16 +1310,16 @@
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="22"/>
@@ -1336,7 +1336,7 @@
         <v>125</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>126</v>
@@ -1353,7 +1353,7 @@
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>147</v>
@@ -1370,7 +1370,7 @@
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>148</v>
@@ -1387,7 +1387,7 @@
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>149</v>
@@ -1404,7 +1404,7 @@
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>150</v>
@@ -1421,7 +1421,7 @@
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>151</v>
@@ -1438,7 +1438,7 @@
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>152</v>
@@ -1455,7 +1455,7 @@
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>153</v>
@@ -1472,7 +1472,7 @@
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>154</v>
@@ -1489,7 +1489,7 @@
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>155</v>
@@ -1515,7 +1515,7 @@
         <v>33</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>34</v>
@@ -1532,7 +1532,7 @@
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>48</v>
@@ -1549,7 +1549,7 @@
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>49</v>
@@ -1566,7 +1566,7 @@
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>50</v>
@@ -1583,7 +1583,7 @@
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>51</v>
@@ -1600,7 +1600,7 @@
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>52</v>
@@ -1617,7 +1617,7 @@
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>53</v>
@@ -1634,7 +1634,7 @@
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>54</v>
@@ -1651,7 +1651,7 @@
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>55</v>
@@ -1668,7 +1668,7 @@
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>56</v>
@@ -1685,7 +1685,7 @@
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>57</v>
@@ -1702,7 +1702,7 @@
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>58</v>
@@ -1719,7 +1719,7 @@
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>59</v>
@@ -1736,7 +1736,7 @@
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>60</v>
@@ -1753,7 +1753,7 @@
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>61</v>
@@ -1776,10 +1776,10 @@
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>11</v>
@@ -1795,7 +1795,7 @@
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>13</v>
@@ -1811,7 +1811,7 @@
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>14</v>
@@ -1827,7 +1827,7 @@
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>15</v>
@@ -1843,7 +1843,7 @@
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>16</v>
@@ -1859,7 +1859,7 @@
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>17</v>
@@ -1875,7 +1875,7 @@
     <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>18</v>
@@ -1896,10 +1896,10 @@
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>81</v>
@@ -1915,7 +1915,7 @@
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>82</v>
@@ -1931,7 +1931,7 @@
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>83</v>
@@ -1947,7 +1947,7 @@
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>84</v>
@@ -1963,7 +1963,7 @@
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>85</v>
@@ -1979,7 +1979,7 @@
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>86</v>
@@ -1995,7 +1995,7 @@
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>87</v>
@@ -2011,7 +2011,7 @@
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>88</v>
@@ -2027,7 +2027,7 @@
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>89</v>
@@ -2043,7 +2043,7 @@
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>90</v>
@@ -2059,7 +2059,7 @@
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>91</v>
@@ -2075,7 +2075,7 @@
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>92</v>
@@ -2091,7 +2091,7 @@
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>93</v>
@@ -2107,7 +2107,7 @@
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>94</v>
@@ -2127,271 +2127,295 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="3"/>
+      <c r="A64" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
-        <v>78</v>
-      </c>
+      <c r="A65" s="7"/>
       <c r="B65" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>206</v>
+        <v>185</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>162</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="F65" s="3"/>
-      <c r="G65" s="2" t="s">
-        <v>209</v>
-      </c>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
-      <c r="B66" s="20" t="s">
-        <v>201</v>
+      <c r="B66" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>206</v>
+        <v>186</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>164</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="F66" s="3"/>
-      <c r="G66" s="2" t="s">
-        <v>208</v>
-      </c>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
-      <c r="B67" s="20" t="s">
-        <v>201</v>
+      <c r="B67" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>206</v>
+        <v>187</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="F67" s="3"/>
-      <c r="G67" s="2" t="s">
-        <v>207</v>
-      </c>
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="3"/>
+      <c r="B68" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B69" s="7"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="7" t="s">
+        <v>200</v>
+      </c>
       <c r="C69" s="3" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="F69" s="3"/>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
+      <c r="B70" s="7" t="s">
+        <v>200</v>
+      </c>
       <c r="C70" s="3" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F70" s="3"/>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
+      <c r="B71" s="7" t="s">
+        <v>200</v>
+      </c>
       <c r="C71" s="3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
+      <c r="B72" s="7" t="s">
+        <v>200</v>
+      </c>
       <c r="C72" s="3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="F72" s="3"/>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
+      <c r="B73" s="7" t="s">
+        <v>200</v>
+      </c>
       <c r="C73" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="F73" s="3"/>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
+      <c r="B74" s="7" t="s">
+        <v>200</v>
+      </c>
       <c r="C74" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F74" s="3"/>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
+      <c r="B75" s="7" t="s">
+        <v>200</v>
+      </c>
       <c r="C75" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="F75" s="3"/>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>175</v>
-      </c>
+      <c r="B76" s="20"/>
+      <c r="C76" s="3"/>
       <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
+      <c r="A77" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>200</v>
+      </c>
       <c r="C77" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>176</v>
+        <v>79</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="F77" s="3"/>
+      <c r="G77" s="2" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
+      <c r="B78" s="20" t="s">
+        <v>200</v>
+      </c>
       <c r="C78" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>178</v>
+        <v>80</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="F78" s="3"/>
+      <c r="G78" s="2" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
+      <c r="B79" s="20" t="s">
+        <v>200</v>
+      </c>
       <c r="C79" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>180</v>
+        <v>203</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="F79" s="3"/>
+      <c r="G79" s="2" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
-      <c r="C80" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>183</v>
-      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="15"/>
       <c r="F80" s="3"/>
     </row>
     <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
+      <c r="A81" s="14" t="s">
+        <v>184</v>
+      </c>
       <c r="B81" s="7"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="15"/>
+      <c r="C81" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="F81" s="3"/>
+      <c r="G81" s="2" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="14" t="s">
-        <v>184</v>
-      </c>
+      <c r="A82" s="7"/>
       <c r="B82" s="7"/>
-      <c r="C82" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>198</v>
-      </c>
+      <c r="C82" s="3"/>
       <c r="F82" s="3"/>
-      <c r="G82" s="2" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
@@ -2447,12 +2471,7 @@
       <c r="C91" s="3"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="3"/>
-      <c r="F92" s="3"/>
-    </row>
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/testing/PDP11Sim_TestPlan.xlsx
+++ b/testing/PDP11Sim_TestPlan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="215">
   <si>
     <t>Test plan for the ECE 586 PDP-11/20 simulator</t>
   </si>
@@ -623,6 +623,9 @@
     <t>Trace File</t>
   </si>
   <si>
+    <t>Performs memory access and checks that the trace file is correct</t>
+  </si>
+  <si>
     <t>Implemented?</t>
   </si>
   <si>
@@ -666,9 +669,6 @@
   </si>
   <si>
     <t>Test cases are executed in the listed order by the test script. A test failure may cause failures in subsequent tests, so when running the whole test suite, always address the first failure.</t>
-  </si>
-  <si>
-    <t>Performs memory accesses and checks that the trace file is correct</t>
   </si>
 </sst>
 </file>
@@ -884,8 +884,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A9:G91" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A9:G91"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A9:G92" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A9:G92"/>
   <sortState ref="A8:F63">
     <sortCondition ref="A7:A63"/>
   </sortState>
@@ -1167,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -1261,7 +1261,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>8</v>
@@ -1290,13 +1290,13 @@
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>156</v>
@@ -1310,16 +1310,16 @@
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="22"/>
@@ -1336,7 +1336,7 @@
         <v>125</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>126</v>
@@ -1353,7 +1353,7 @@
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>147</v>
@@ -1370,7 +1370,7 @@
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>148</v>
@@ -1387,7 +1387,7 @@
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>149</v>
@@ -1404,7 +1404,7 @@
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>150</v>
@@ -1421,7 +1421,7 @@
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>151</v>
@@ -1438,7 +1438,7 @@
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>152</v>
@@ -1455,7 +1455,7 @@
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>153</v>
@@ -1472,7 +1472,7 @@
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>154</v>
@@ -1489,7 +1489,7 @@
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>155</v>
@@ -1515,7 +1515,7 @@
         <v>33</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>34</v>
@@ -1532,7 +1532,7 @@
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>48</v>
@@ -1549,7 +1549,7 @@
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>49</v>
@@ -1566,7 +1566,7 @@
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>50</v>
@@ -1583,7 +1583,7 @@
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>51</v>
@@ -1600,7 +1600,7 @@
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>52</v>
@@ -1617,7 +1617,7 @@
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>53</v>
@@ -1634,7 +1634,7 @@
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>54</v>
@@ -1651,7 +1651,7 @@
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>55</v>
@@ -1668,7 +1668,7 @@
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>56</v>
@@ -1685,7 +1685,7 @@
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>57</v>
@@ -1702,7 +1702,7 @@
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>58</v>
@@ -1719,7 +1719,7 @@
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>59</v>
@@ -1736,7 +1736,7 @@
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>60</v>
@@ -1753,7 +1753,7 @@
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>61</v>
@@ -1776,10 +1776,10 @@
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>11</v>
@@ -1795,7 +1795,7 @@
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>13</v>
@@ -1811,7 +1811,7 @@
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>14</v>
@@ -1827,7 +1827,7 @@
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>15</v>
@@ -1843,7 +1843,7 @@
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>16</v>
@@ -1859,7 +1859,7 @@
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>17</v>
@@ -1875,7 +1875,7 @@
     <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>18</v>
@@ -1896,10 +1896,10 @@
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>81</v>
@@ -1915,7 +1915,7 @@
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>82</v>
@@ -1931,7 +1931,7 @@
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>83</v>
@@ -1947,7 +1947,7 @@
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>84</v>
@@ -1963,7 +1963,7 @@
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>85</v>
@@ -1979,7 +1979,7 @@
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>86</v>
@@ -1995,7 +1995,7 @@
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>87</v>
@@ -2011,7 +2011,7 @@
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>88</v>
@@ -2027,7 +2027,7 @@
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>89</v>
@@ -2043,7 +2043,7 @@
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>90</v>
@@ -2059,7 +2059,7 @@
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>91</v>
@@ -2075,7 +2075,7 @@
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>92</v>
@@ -2091,7 +2091,7 @@
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>93</v>
@@ -2107,7 +2107,7 @@
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>94</v>
@@ -2127,295 +2127,271 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>161</v>
-      </c>
+      <c r="A64" s="10"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="3"/>
       <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
+      <c r="A65" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="B65" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>162</v>
+        <v>79</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="F65" s="3"/>
+      <c r="G65" s="2" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
-      <c r="B66" s="7" t="s">
-        <v>200</v>
+      <c r="B66" s="20" t="s">
+        <v>201</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>164</v>
+        <v>80</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="F66" s="3"/>
+      <c r="G66" s="2" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
-      <c r="B67" s="7" t="s">
-        <v>200</v>
+      <c r="B67" s="20" t="s">
+        <v>201</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>166</v>
+        <v>204</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="F67" s="3"/>
+      <c r="G67" s="2" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
-      <c r="B68" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>169</v>
-      </c>
+      <c r="B68" s="7"/>
+      <c r="C68" s="3"/>
       <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7" t="s">
-        <v>200</v>
-      </c>
+      <c r="A69" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B69" s="7"/>
       <c r="C69" s="3" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F69" s="3"/>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
-      <c r="B70" s="7" t="s">
-        <v>200</v>
-      </c>
+      <c r="B70" s="7"/>
       <c r="C70" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F70" s="3"/>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
-      <c r="B71" s="7" t="s">
-        <v>200</v>
-      </c>
+      <c r="B71" s="7"/>
       <c r="C71" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
-      <c r="B72" s="7" t="s">
-        <v>200</v>
-      </c>
+      <c r="B72" s="7"/>
       <c r="C72" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F72" s="3"/>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
-      <c r="B73" s="7" t="s">
-        <v>200</v>
-      </c>
+      <c r="B73" s="7"/>
       <c r="C73" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F73" s="3"/>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
-      <c r="B74" s="7" t="s">
-        <v>200</v>
-      </c>
+      <c r="B74" s="7"/>
       <c r="C74" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F74" s="3"/>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
-      <c r="B75" s="7" t="s">
-        <v>200</v>
-      </c>
+      <c r="B75" s="7"/>
       <c r="C75" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F75" s="3"/>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="3"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>200</v>
-      </c>
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
       <c r="C77" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>205</v>
+        <v>192</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="F77" s="3"/>
-      <c r="G77" s="2" t="s">
-        <v>208</v>
-      </c>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
-      <c r="B78" s="20" t="s">
-        <v>200</v>
-      </c>
+      <c r="B78" s="7"/>
       <c r="C78" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>178</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="F78" s="3"/>
-      <c r="G78" s="2" t="s">
-        <v>207</v>
-      </c>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
-      <c r="B79" s="20" t="s">
-        <v>200</v>
-      </c>
+      <c r="B79" s="7"/>
       <c r="C79" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>180</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="F79" s="3"/>
-      <c r="G79" s="2" t="s">
-        <v>206</v>
-      </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="15"/>
+      <c r="C80" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="F80" s="3"/>
     </row>
     <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="15"/>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="3" t="s">
+      <c r="B82" s="7"/>
+      <c r="C82" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F81" s="3"/>
-      <c r="G81" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="3"/>
       <c r="F82" s="3"/>
+      <c r="G82" s="2" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
@@ -2471,7 +2447,12 @@
       <c r="C91" s="3"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="3"/>
+      <c r="F92" s="3"/>
+    </row>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/testing/PDP11Sim_TestPlan.xlsx
+++ b/testing/PDP11Sim_TestPlan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="218">
   <si>
     <t>Test plan for the ECE 586 PDP-11/20 simulator</t>
   </si>
@@ -620,6 +620,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>OT_02</t>
+  </si>
+  <si>
     <t>Trace File</t>
   </si>
   <si>
@@ -669,6 +672,12 @@
   </si>
   <si>
     <t>Performs memory accesses and checks that the trace file is correct</t>
+  </si>
+  <si>
+    <t>Starting Address</t>
+  </si>
+  <si>
+    <t>Tests -c option for specifying initial program counter</t>
   </si>
 </sst>
 </file>
@@ -1167,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,7 +1256,7 @@
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -1261,7 +1270,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>8</v>
@@ -1290,13 +1299,13 @@
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>156</v>
@@ -1310,16 +1319,16 @@
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="22"/>
@@ -1336,7 +1345,7 @@
         <v>125</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>126</v>
@@ -1353,7 +1362,7 @@
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>147</v>
@@ -1370,7 +1379,7 @@
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>148</v>
@@ -1387,7 +1396,7 @@
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>149</v>
@@ -1404,7 +1413,7 @@
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>150</v>
@@ -1421,7 +1430,7 @@
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>151</v>
@@ -1438,7 +1447,7 @@
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>152</v>
@@ -1455,7 +1464,7 @@
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>153</v>
@@ -1472,7 +1481,7 @@
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>154</v>
@@ -1489,7 +1498,7 @@
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>155</v>
@@ -1515,7 +1524,7 @@
         <v>33</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>34</v>
@@ -1532,7 +1541,7 @@
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>48</v>
@@ -1549,7 +1558,7 @@
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>49</v>
@@ -1566,7 +1575,7 @@
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>50</v>
@@ -1583,7 +1592,7 @@
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>51</v>
@@ -1600,7 +1609,7 @@
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>52</v>
@@ -1617,7 +1626,7 @@
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>53</v>
@@ -1634,7 +1643,7 @@
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>54</v>
@@ -1651,7 +1660,7 @@
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>55</v>
@@ -1668,7 +1677,7 @@
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>56</v>
@@ -1685,7 +1694,7 @@
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>57</v>
@@ -1702,7 +1711,7 @@
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>58</v>
@@ -1719,7 +1728,7 @@
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>59</v>
@@ -1736,7 +1745,7 @@
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>60</v>
@@ -1753,7 +1762,7 @@
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>61</v>
@@ -1776,10 +1785,10 @@
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>11</v>
@@ -1795,7 +1804,7 @@
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>13</v>
@@ -1811,7 +1820,7 @@
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>14</v>
@@ -1827,7 +1836,7 @@
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>15</v>
@@ -1843,7 +1852,7 @@
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>16</v>
@@ -1859,7 +1868,7 @@
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>17</v>
@@ -1875,7 +1884,7 @@
     <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>18</v>
@@ -1896,10 +1905,10 @@
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>81</v>
@@ -1915,7 +1924,7 @@
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>82</v>
@@ -1931,7 +1940,7 @@
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>83</v>
@@ -1947,7 +1956,7 @@
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>84</v>
@@ -1963,7 +1972,7 @@
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>85</v>
@@ -1979,7 +1988,7 @@
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>86</v>
@@ -1995,7 +2004,7 @@
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>87</v>
@@ -2011,7 +2020,7 @@
     <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>88</v>
@@ -2027,7 +2036,7 @@
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>89</v>
@@ -2043,7 +2052,7 @@
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>90</v>
@@ -2059,7 +2068,7 @@
     <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>91</v>
@@ -2075,7 +2084,7 @@
     <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>92</v>
@@ -2091,7 +2100,7 @@
     <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>93</v>
@@ -2107,7 +2116,7 @@
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>94</v>
@@ -2131,7 +2140,7 @@
         <v>158</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>159</v>
@@ -2147,7 +2156,7 @@
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>185</v>
@@ -2163,7 +2172,7 @@
     <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>186</v>
@@ -2179,7 +2188,7 @@
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>187</v>
@@ -2195,7 +2204,7 @@
     <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>188</v>
@@ -2211,7 +2220,7 @@
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>189</v>
@@ -2227,7 +2236,7 @@
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>190</v>
@@ -2243,7 +2252,7 @@
     <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>191</v>
@@ -2259,7 +2268,7 @@
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>192</v>
@@ -2275,7 +2284,7 @@
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>193</v>
@@ -2291,7 +2300,7 @@
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>194</v>
@@ -2307,7 +2316,7 @@
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>195</v>
@@ -2331,58 +2340,58 @@
         <v>78</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D77" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D78" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D79" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2396,7 +2405,9 @@
       <c r="A81" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="B81" s="7"/>
+      <c r="B81" s="7" t="s">
+        <v>201</v>
+      </c>
       <c r="C81" s="3" t="s">
         <v>196</v>
       </c>
@@ -2404,18 +2415,31 @@
         <v>197</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="3"/>
+      <c r="B82" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="F82" s="3"/>
+      <c r="G82" s="2" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
